--- a/3_Component_Results/GDP/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/GDP/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>ME</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>Q7</t>
+  </si>
+  <si>
+    <t>Q8</t>
   </si>
 </sst>
 </file>
@@ -413,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,19 +447,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.004542484016631809</v>
+        <v>0.2048957379308303</v>
       </c>
       <c r="C2">
-        <v>0.282877147609735</v>
+        <v>0.3997631070090498</v>
       </c>
       <c r="D2">
-        <v>0.1572358163012702</v>
+        <v>0.3041926803226083</v>
       </c>
       <c r="E2">
-        <v>0.3965297167946814</v>
+        <v>0.5515366536528722</v>
       </c>
       <c r="F2">
-        <v>0.4114713327675177</v>
+        <v>0.5313948145867153</v>
       </c>
       <c r="G2">
         <v>14</v>
@@ -467,19 +470,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.03099819352422676</v>
+        <v>0.2376769736950485</v>
       </c>
       <c r="C3">
-        <v>0.2134677556151823</v>
+        <v>0.3882757705769553</v>
       </c>
       <c r="D3">
-        <v>0.08055127203851814</v>
+        <v>0.3054694716933793</v>
       </c>
       <c r="E3">
-        <v>0.2838155598950102</v>
+        <v>0.552692927124438</v>
       </c>
       <c r="F3">
-        <v>0.2936373886953353</v>
+        <v>0.5193528555079431</v>
       </c>
       <c r="G3">
         <v>13</v>
@@ -490,19 +493,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.03633967823461287</v>
+        <v>0.2742536187534859</v>
       </c>
       <c r="C4">
-        <v>0.2322728192109806</v>
+        <v>0.4315080895772995</v>
       </c>
       <c r="D4">
-        <v>0.1239422304461905</v>
+        <v>0.2558436790103293</v>
       </c>
       <c r="E4">
-        <v>0.3520543004228047</v>
+        <v>0.5058099237958161</v>
       </c>
       <c r="F4">
-        <v>0.3657445580013888</v>
+        <v>0.4439024851280417</v>
       </c>
       <c r="G4">
         <v>12</v>
@@ -513,19 +516,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.01446540705065661</v>
+        <v>0.3352241573957673</v>
       </c>
       <c r="C5">
-        <v>0.2316192071729946</v>
+        <v>0.3891781958695149</v>
       </c>
       <c r="D5">
-        <v>0.1002116149541096</v>
+        <v>0.2638597261285222</v>
       </c>
       <c r="E5">
-        <v>0.3165621818128463</v>
+        <v>0.5136727811832376</v>
       </c>
       <c r="F5">
-        <v>0.33166640415976</v>
+        <v>0.4082069811621331</v>
       </c>
       <c r="G5">
         <v>11</v>
@@ -536,19 +539,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.005229216306130611</v>
+        <v>0.3275244721553913</v>
       </c>
       <c r="C6">
-        <v>0.2507691012391847</v>
+        <v>0.4092522750510487</v>
       </c>
       <c r="D6">
-        <v>0.1315062303326488</v>
+        <v>0.3133210581871232</v>
       </c>
       <c r="E6">
-        <v>0.3626378776860587</v>
+        <v>0.5597508894027086</v>
       </c>
       <c r="F6">
-        <v>0.3822141424638992</v>
+        <v>0.4784799755782838</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -559,22 +562,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.03258812848474492</v>
+        <v>0.3138946273557288</v>
       </c>
       <c r="C7">
-        <v>0.2175041644559067</v>
+        <v>0.3664898380679329</v>
       </c>
       <c r="D7">
-        <v>0.07982094020478978</v>
+        <v>0.2144244288482471</v>
       </c>
       <c r="E7">
-        <v>0.2825259991660763</v>
+        <v>0.4630598544985812</v>
       </c>
       <c r="F7">
-        <v>0.3031261229825413</v>
+        <v>0.3610836686090043</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -582,22 +585,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.1207889050135927</v>
+        <v>0.3484515249888549</v>
       </c>
       <c r="C8">
-        <v>0.3432171383677922</v>
+        <v>0.349600236492926</v>
       </c>
       <c r="D8">
-        <v>0.2362053104489554</v>
+        <v>0.3199050252412782</v>
       </c>
       <c r="E8">
-        <v>0.486009578556797</v>
+        <v>0.5656014720996386</v>
       </c>
       <c r="F8">
-        <v>0.5435872832392515</v>
+        <v>0.4880408507175025</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -605,18 +608,41 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.6273507742420896</v>
+        <v>0.6949929595738982</v>
       </c>
       <c r="C9">
-        <v>0.6273507742420896</v>
+        <v>0.6949929595738982</v>
       </c>
       <c r="D9">
-        <v>0.3935689939421493</v>
+        <v>0.5900249945076564</v>
       </c>
       <c r="E9">
-        <v>0.6273507742420896</v>
+        <v>0.7681308446532117</v>
+      </c>
+      <c r="F9">
+        <v>0.4006428221939781</v>
       </c>
       <c r="G9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>0.1275310031338272</v>
+      </c>
+      <c r="C10">
+        <v>0.1275310031338272</v>
+      </c>
+      <c r="D10">
+        <v>0.01626415676032024</v>
+      </c>
+      <c r="E10">
+        <v>0.1275310031338272</v>
+      </c>
+      <c r="G10">
         <v>1</v>
       </c>
     </row>

--- a/3_Component_Results/GDP/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/GDP/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
@@ -447,19 +447,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.2048957379308303</v>
+        <v>0.1449608478139278</v>
       </c>
       <c r="C2">
-        <v>0.3997631070090498</v>
+        <v>0.3375693222279904</v>
       </c>
       <c r="D2">
-        <v>0.3041926803226083</v>
+        <v>0.2207894770556722</v>
       </c>
       <c r="E2">
-        <v>0.5515366536528722</v>
+        <v>0.4698824076890645</v>
       </c>
       <c r="F2">
-        <v>0.5313948145867153</v>
+        <v>0.4638353168623497</v>
       </c>
       <c r="G2">
         <v>14</v>
@@ -470,19 +470,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.2376769736950485</v>
+        <v>0.1842546231075045</v>
       </c>
       <c r="C3">
-        <v>0.3882757705769553</v>
+        <v>0.2869443818724057</v>
       </c>
       <c r="D3">
-        <v>0.3054694716933793</v>
+        <v>0.1607157978134096</v>
       </c>
       <c r="E3">
-        <v>0.552692927124438</v>
+        <v>0.4008937487831527</v>
       </c>
       <c r="F3">
-        <v>0.5193528555079431</v>
+        <v>0.3705804469342626</v>
       </c>
       <c r="G3">
         <v>13</v>
@@ -493,19 +493,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.2742536187534859</v>
+        <v>0.2080690016882378</v>
       </c>
       <c r="C4">
-        <v>0.4315080895772995</v>
+        <v>0.2875078072560339</v>
       </c>
       <c r="D4">
-        <v>0.2558436790103293</v>
+        <v>0.1982701821409898</v>
       </c>
       <c r="E4">
-        <v>0.5058099237958161</v>
+        <v>0.4452754003321874</v>
       </c>
       <c r="F4">
-        <v>0.4439024851280417</v>
+        <v>0.4111767671329999</v>
       </c>
       <c r="G4">
         <v>12</v>
@@ -516,19 +516,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.3352241573957673</v>
+        <v>0.200282133760416</v>
       </c>
       <c r="C5">
-        <v>0.3891781958695149</v>
+        <v>0.2861112695554327</v>
       </c>
       <c r="D5">
-        <v>0.2638597261285222</v>
+        <v>0.1811512371320833</v>
       </c>
       <c r="E5">
-        <v>0.5136727811832376</v>
+        <v>0.4256186522370504</v>
       </c>
       <c r="F5">
-        <v>0.4082069811621331</v>
+        <v>0.3938808632458601</v>
       </c>
       <c r="G5">
         <v>11</v>
@@ -539,19 +539,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.3275244721553913</v>
+        <v>0.2018315634777409</v>
       </c>
       <c r="C6">
-        <v>0.4092522750510487</v>
+        <v>0.2396510267933027</v>
       </c>
       <c r="D6">
-        <v>0.3133210581871232</v>
+        <v>0.1874691252642877</v>
       </c>
       <c r="E6">
-        <v>0.5597508894027086</v>
+        <v>0.4329770493505258</v>
       </c>
       <c r="F6">
-        <v>0.4784799755782838</v>
+        <v>0.4037781916520482</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -562,19 +562,19 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.3138946273557288</v>
+        <v>0.2248954171260089</v>
       </c>
       <c r="C7">
-        <v>0.3664898380679329</v>
+        <v>0.2511991784966441</v>
       </c>
       <c r="D7">
-        <v>0.2144244288482471</v>
+        <v>0.1348234142648089</v>
       </c>
       <c r="E7">
-        <v>0.4630598544985812</v>
+        <v>0.3671830800361162</v>
       </c>
       <c r="F7">
-        <v>0.3610836686090043</v>
+        <v>0.3078573514196035</v>
       </c>
       <c r="G7">
         <v>9</v>
@@ -585,19 +585,19 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.3484515249888549</v>
+        <v>0.2892781581597261</v>
       </c>
       <c r="C8">
-        <v>0.349600236492926</v>
+        <v>0.3217998310022198</v>
       </c>
       <c r="D8">
-        <v>0.3199050252412782</v>
+        <v>0.2884461656711942</v>
       </c>
       <c r="E8">
-        <v>0.5656014720996386</v>
+        <v>0.5370718440499317</v>
       </c>
       <c r="F8">
-        <v>0.4880408507175025</v>
+        <v>0.4956986740546043</v>
       </c>
       <c r="G8">
         <v>6</v>
@@ -608,19 +608,19 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.6949929595738982</v>
+        <v>0.527914141851893</v>
       </c>
       <c r="C9">
-        <v>0.6949929595738982</v>
+        <v>0.527914141851893</v>
       </c>
       <c r="D9">
-        <v>0.5900249945076564</v>
+        <v>0.3863563944451271</v>
       </c>
       <c r="E9">
-        <v>0.7681308446532117</v>
+        <v>0.6215757350839294</v>
       </c>
       <c r="F9">
-        <v>0.4006428221939781</v>
+        <v>0.4018638823244256</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -631,16 +631,16 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1275310031338272</v>
+        <v>0.01851010070983469</v>
       </c>
       <c r="C10">
-        <v>0.1275310031338272</v>
+        <v>0.01851010070983469</v>
       </c>
       <c r="D10">
-        <v>0.01626415676032024</v>
+        <v>0.0003426238282882228</v>
       </c>
       <c r="E10">
-        <v>0.1275310031338272</v>
+        <v>0.01851010070983469</v>
       </c>
       <c r="G10">
         <v>1</v>

--- a/3_Component_Results/GDP/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/GDP/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ME</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>Q8</t>
+  </si>
+  <si>
+    <t>Q9</t>
   </si>
 </sst>
 </file>
@@ -416,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.1449608478139278</v>
+        <v>0.1500504596286886</v>
       </c>
       <c r="C2">
-        <v>0.3375693222279904</v>
+        <v>0.9002586435756988</v>
       </c>
       <c r="D2">
-        <v>0.2207894770556722</v>
+        <v>3.690897970745633</v>
       </c>
       <c r="E2">
-        <v>0.4698824076890645</v>
+        <v>1.921170989460759</v>
       </c>
       <c r="F2">
-        <v>0.4638353168623497</v>
+        <v>1.934360485255287</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.1842546231075045</v>
+        <v>0.1741937731364769</v>
       </c>
       <c r="C3">
-        <v>0.2869443818724057</v>
+        <v>0.861216386388353</v>
       </c>
       <c r="D3">
-        <v>0.1607157978134096</v>
+        <v>3.555569236642697</v>
       </c>
       <c r="E3">
-        <v>0.4008937487831527</v>
+        <v>1.885621710906696</v>
       </c>
       <c r="F3">
-        <v>0.3705804469342626</v>
+        <v>1.896620454657085</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -493,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.2080690016882378</v>
+        <v>0.1975424125742846</v>
       </c>
       <c r="C4">
-        <v>0.2875078072560339</v>
+        <v>0.9344996350649757</v>
       </c>
       <c r="D4">
-        <v>0.1982701821409898</v>
+        <v>3.868064466556859</v>
       </c>
       <c r="E4">
-        <v>0.4452754003321874</v>
+        <v>1.966739552293811</v>
       </c>
       <c r="F4">
-        <v>0.4111767671329999</v>
+        <v>1.977071864882974</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -516,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.200282133760416</v>
+        <v>0.1696732928241277</v>
       </c>
       <c r="C5">
-        <v>0.2861112695554327</v>
+        <v>0.8834793121284986</v>
       </c>
       <c r="D5">
-        <v>0.1811512371320833</v>
+        <v>3.720086392232908</v>
       </c>
       <c r="E5">
-        <v>0.4256186522370504</v>
+        <v>1.928752548211643</v>
       </c>
       <c r="F5">
-        <v>0.3938808632458601</v>
+        <v>1.941606450278617</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -539,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.2018315634777409</v>
+        <v>0.1955713809712057</v>
       </c>
       <c r="C6">
-        <v>0.2396510267933027</v>
+        <v>0.8996788932259349</v>
       </c>
       <c r="D6">
-        <v>0.1874691252642877</v>
+        <v>3.907687536052267</v>
       </c>
       <c r="E6">
-        <v>0.4329770493505258</v>
+        <v>1.976787175204318</v>
       </c>
       <c r="F6">
-        <v>0.4037781916520482</v>
+        <v>1.98835550598802</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -562,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.2248954171260089</v>
+        <v>0.1353573482079271</v>
       </c>
       <c r="C7">
-        <v>0.2511991784966441</v>
+        <v>0.8312788515306436</v>
       </c>
       <c r="D7">
-        <v>0.1348234142648089</v>
+        <v>3.56529404348522</v>
       </c>
       <c r="E7">
-        <v>0.3671830800361162</v>
+        <v>1.888198623949615</v>
       </c>
       <c r="F7">
-        <v>0.3078573514196035</v>
+        <v>1.904151790526757</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -585,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.2892781581597261</v>
+        <v>0.1150417487834175</v>
       </c>
       <c r="C8">
-        <v>0.3217998310022198</v>
+        <v>0.8182950210794</v>
       </c>
       <c r="D8">
-        <v>0.2884461656711942</v>
+        <v>3.666196212993372</v>
       </c>
       <c r="E8">
-        <v>0.5370718440499317</v>
+        <v>1.914731368363033</v>
       </c>
       <c r="F8">
-        <v>0.4956986740546043</v>
+        <v>1.932869230905421</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -608,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.527914141851893</v>
+        <v>0.1478860465117961</v>
       </c>
       <c r="C9">
-        <v>0.527914141851893</v>
+        <v>0.8234762687095699</v>
       </c>
       <c r="D9">
-        <v>0.3863563944451271</v>
+        <v>3.667743996575232</v>
       </c>
       <c r="E9">
-        <v>0.6215757350839294</v>
+        <v>1.915135503450143</v>
       </c>
       <c r="F9">
-        <v>0.4018638823244256</v>
+        <v>1.931492033276065</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -631,19 +634,45 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.01851010070983469</v>
+        <v>0.1233280604110242</v>
       </c>
       <c r="C10">
-        <v>0.01851010070983469</v>
+        <v>0.8107235582056446</v>
       </c>
       <c r="D10">
-        <v>0.0003426238282882228</v>
+        <v>3.724587762219358</v>
       </c>
       <c r="E10">
-        <v>0.01851010070983469</v>
+        <v>1.929919107688029</v>
+      </c>
+      <c r="F10">
+        <v>1.948767937542836</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>0.0913265010797303</v>
+      </c>
+      <c r="C11">
+        <v>0.785852673267451</v>
+      </c>
+      <c r="D11">
+        <v>3.688102942804829</v>
+      </c>
+      <c r="E11">
+        <v>1.92044342348449</v>
+      </c>
+      <c r="F11">
+        <v>1.941523297764307</v>
+      </c>
+      <c r="G11">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/GDP/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/GDP/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.1500504596286886</v>
+        <v>0.1886711299453826</v>
       </c>
       <c r="C2">
-        <v>0.9002586435756988</v>
+        <v>1.017921723714049</v>
       </c>
       <c r="D2">
-        <v>3.690897970745633</v>
+        <v>4.266585331249175</v>
       </c>
       <c r="E2">
-        <v>1.921170989460759</v>
+        <v>2.065571429713621</v>
       </c>
       <c r="F2">
-        <v>1.934360485255287</v>
+        <v>2.081870163654579</v>
       </c>
       <c r="G2">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.1741937731364769</v>
+        <v>0.1733767525321955</v>
       </c>
       <c r="C3">
-        <v>0.861216386388353</v>
+        <v>1.062798336463839</v>
       </c>
       <c r="D3">
-        <v>3.555569236642697</v>
+        <v>4.575240169899562</v>
       </c>
       <c r="E3">
-        <v>1.885621710906696</v>
+        <v>2.138981105549921</v>
       </c>
       <c r="F3">
-        <v>1.896620454657085</v>
+        <v>2.158427712102139</v>
       </c>
       <c r="G3">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.1975424125742846</v>
+        <v>0.1743475823563</v>
       </c>
       <c r="C4">
-        <v>0.9344996350649757</v>
+        <v>1.003154296213989</v>
       </c>
       <c r="D4">
-        <v>3.868064466556859</v>
+        <v>4.399256932327289</v>
       </c>
       <c r="E4">
-        <v>1.966739552293811</v>
+        <v>2.097440567054831</v>
       </c>
       <c r="F4">
-        <v>1.977071864882974</v>
+        <v>2.116809367978816</v>
       </c>
       <c r="G4">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.1696732928241277</v>
+        <v>0.1961419244217442</v>
       </c>
       <c r="C5">
-        <v>0.8834793121284986</v>
+        <v>1.097619827889188</v>
       </c>
       <c r="D5">
-        <v>3.720086392232908</v>
+        <v>4.801704910896162</v>
       </c>
       <c r="E5">
-        <v>1.928752548211643</v>
+        <v>2.191279286375007</v>
       </c>
       <c r="F5">
-        <v>1.941606450278617</v>
+        <v>2.211013681542756</v>
       </c>
       <c r="G5">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1955713809712057</v>
+        <v>0.161080004310003</v>
       </c>
       <c r="C6">
-        <v>0.8996788932259349</v>
+        <v>1.037884436753809</v>
       </c>
       <c r="D6">
-        <v>3.907687536052267</v>
+        <v>4.647468959415798</v>
       </c>
       <c r="E6">
-        <v>1.976787175204318</v>
+        <v>2.155798914420313</v>
       </c>
       <c r="F6">
-        <v>1.98835550598802</v>
+        <v>2.178629889817544</v>
       </c>
       <c r="G6">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.1353573482079271</v>
+        <v>0.1938794397532232</v>
       </c>
       <c r="C7">
-        <v>0.8312788515306436</v>
+        <v>1.078064803072593</v>
       </c>
       <c r="D7">
-        <v>3.56529404348522</v>
+        <v>4.91315197140037</v>
       </c>
       <c r="E7">
-        <v>1.888198623949615</v>
+        <v>2.216563098898917</v>
       </c>
       <c r="F7">
-        <v>1.904151790526757</v>
+        <v>2.238525191373713</v>
       </c>
       <c r="G7">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.1150417487834175</v>
+        <v>0.1227245904408841</v>
       </c>
       <c r="C8">
-        <v>0.8182950210794</v>
+        <v>0.9933980158749599</v>
       </c>
       <c r="D8">
-        <v>3.666196212993372</v>
+        <v>4.520655172132273</v>
       </c>
       <c r="E8">
-        <v>1.914731368363033</v>
+        <v>2.126183240488052</v>
       </c>
       <c r="F8">
-        <v>1.932869230905421</v>
+        <v>2.152748266706019</v>
       </c>
       <c r="G8">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.1478860465117961</v>
+        <v>0.1006825760723657</v>
       </c>
       <c r="C9">
-        <v>0.8234762687095699</v>
+        <v>0.9849251405554545</v>
       </c>
       <c r="D9">
-        <v>3.667743996575232</v>
+        <v>4.66204020979998</v>
       </c>
       <c r="E9">
-        <v>1.915135503450143</v>
+        <v>2.159175817250643</v>
       </c>
       <c r="F9">
-        <v>1.931492033276065</v>
+        <v>2.188315313630956</v>
       </c>
       <c r="G9">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1233280604110242</v>
+        <v>0.1565014654937074</v>
       </c>
       <c r="C10">
-        <v>0.8107235582056446</v>
+        <v>0.9857090473466144</v>
       </c>
       <c r="D10">
-        <v>3.724587762219358</v>
+        <v>4.70445062118944</v>
       </c>
       <c r="E10">
-        <v>1.929919107688029</v>
+        <v>2.168974555219457</v>
       </c>
       <c r="F10">
-        <v>1.948767937542836</v>
+        <v>2.19585400674243</v>
       </c>
       <c r="G10">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.0913265010797303</v>
+        <v>0.1457776698747011</v>
       </c>
       <c r="C11">
-        <v>0.785852673267451</v>
+        <v>0.9842029885340268</v>
       </c>
       <c r="D11">
-        <v>3.688102942804829</v>
+        <v>4.813624961259621</v>
       </c>
       <c r="E11">
-        <v>1.92044342348449</v>
+        <v>2.19399748433302</v>
       </c>
       <c r="F11">
-        <v>1.941523297764307</v>
+        <v>2.223091431876469</v>
       </c>
       <c r="G11">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/GDP/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/GDP/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.1886711299453826</v>
+        <v>0.1282474195497992</v>
       </c>
       <c r="C2">
-        <v>1.017921723714049</v>
+        <v>0.9763931104222339</v>
       </c>
       <c r="D2">
-        <v>4.266585331249175</v>
+        <v>4.446347975453152</v>
       </c>
       <c r="E2">
-        <v>2.065571429713621</v>
+        <v>2.108636520468417</v>
       </c>
       <c r="F2">
-        <v>2.081870163654579</v>
+        <v>2.125676030426229</v>
       </c>
       <c r="G2">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.1733767525321955</v>
+        <v>0.1215397788006174</v>
       </c>
       <c r="C3">
-        <v>1.062798336463839</v>
+        <v>1.018530036818849</v>
       </c>
       <c r="D3">
-        <v>4.575240169899562</v>
+        <v>4.443793105881769</v>
       </c>
       <c r="E3">
-        <v>2.138981105549921</v>
+        <v>2.108030622614807</v>
       </c>
       <c r="F3">
-        <v>2.158427712102139</v>
+        <v>2.125890254825519</v>
       </c>
       <c r="G3">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.1743475823563</v>
+        <v>0.1466579445676272</v>
       </c>
       <c r="C4">
-        <v>1.003154296213989</v>
+        <v>0.9414795404354654</v>
       </c>
       <c r="D4">
-        <v>4.399256932327289</v>
+        <v>4.22668197375337</v>
       </c>
       <c r="E4">
-        <v>2.097440567054831</v>
+        <v>2.055889582091745</v>
       </c>
       <c r="F4">
-        <v>2.116809367978816</v>
+        <v>2.071902797105537</v>
       </c>
       <c r="G4">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.1961419244217442</v>
+        <v>0.1692583036833795</v>
       </c>
       <c r="C5">
-        <v>1.097619827889188</v>
+        <v>1.044790455529975</v>
       </c>
       <c r="D5">
-        <v>4.801704910896162</v>
+        <v>4.665004838604097</v>
       </c>
       <c r="E5">
-        <v>2.191279286375007</v>
+        <v>2.159862226764498</v>
       </c>
       <c r="F5">
-        <v>2.211013681542756</v>
+        <v>2.176006054099445</v>
       </c>
       <c r="G5">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.161080004310003</v>
+        <v>0.1384867545238795</v>
       </c>
       <c r="C6">
-        <v>1.037884436753809</v>
+        <v>0.9904347050370882</v>
       </c>
       <c r="D6">
-        <v>4.647468959415798</v>
+        <v>4.525272260743743</v>
       </c>
       <c r="E6">
-        <v>2.155798914420313</v>
+        <v>2.127268732610843</v>
       </c>
       <c r="F6">
-        <v>2.178629889817544</v>
+        <v>2.145705533808543</v>
       </c>
       <c r="G6">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.1938794397532232</v>
+        <v>0.1625861655212504</v>
       </c>
       <c r="C7">
-        <v>1.078064803072593</v>
+        <v>1.003062538999909</v>
       </c>
       <c r="D7">
-        <v>4.91315197140037</v>
+        <v>4.667669780972878</v>
       </c>
       <c r="E7">
-        <v>2.216563098898917</v>
+        <v>2.160479062840665</v>
       </c>
       <c r="F7">
-        <v>2.238525191373713</v>
+        <v>2.17815841638289</v>
       </c>
       <c r="G7">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.1227245904408841</v>
+        <v>0.09841386822182357</v>
       </c>
       <c r="C8">
-        <v>0.9933980158749599</v>
+        <v>0.9352685283506139</v>
       </c>
       <c r="D8">
-        <v>4.520655172132273</v>
+        <v>4.357710809747646</v>
       </c>
       <c r="E8">
-        <v>2.126183240488052</v>
+        <v>2.087513068162124</v>
       </c>
       <c r="F8">
-        <v>2.152748266706019</v>
+        <v>2.108754201445493</v>
       </c>
       <c r="G8">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.1006825760723657</v>
+        <v>0.06748005575673845</v>
       </c>
       <c r="C9">
-        <v>0.9849251405554545</v>
+        <v>0.9265491817941878</v>
       </c>
       <c r="D9">
-        <v>4.66204020979998</v>
+        <v>4.470640045755423</v>
       </c>
       <c r="E9">
-        <v>2.159175817250643</v>
+        <v>2.114388811395724</v>
       </c>
       <c r="F9">
-        <v>2.188315313630956</v>
+        <v>2.137743895861163</v>
       </c>
       <c r="G9">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1565014654937074</v>
+        <v>0.09914051671729636</v>
       </c>
       <c r="C10">
-        <v>0.9857090473466144</v>
+        <v>0.9226436494409858</v>
       </c>
       <c r="D10">
-        <v>4.70445062118944</v>
+        <v>4.481900347334963</v>
       </c>
       <c r="E10">
-        <v>2.168974555219457</v>
+        <v>2.117049916117937</v>
       </c>
       <c r="F10">
-        <v>2.19585400674243</v>
+        <v>2.13975451822466</v>
       </c>
       <c r="G10">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.1457776698747011</v>
+        <v>0.07576832823998672</v>
       </c>
       <c r="C11">
-        <v>0.9842029885340268</v>
+        <v>0.9176283451160873</v>
       </c>
       <c r="D11">
-        <v>4.813624961259621</v>
+        <v>4.557762439856401</v>
       </c>
       <c r="E11">
-        <v>2.19399748433302</v>
+        <v>2.13489166934915</v>
       </c>
       <c r="F11">
-        <v>2.223091431876469</v>
+        <v>2.159408835161238</v>
       </c>
       <c r="G11">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/GDP/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/GDP/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.1625861655212504</v>
+        <v>0.135186667482864</v>
       </c>
       <c r="C7">
-        <v>1.003062538999909</v>
+        <v>0.9840273120519328</v>
       </c>
       <c r="D7">
-        <v>4.667669780972878</v>
+        <v>5.006397119580056</v>
       </c>
       <c r="E7">
-        <v>2.160479062840665</v>
+        <v>2.237497959681764</v>
       </c>
       <c r="F7">
-        <v>2.17815841638289</v>
+        <v>2.263390329593289</v>
       </c>
       <c r="G7">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.09841386822182357</v>
+        <v>0.1814798078799119</v>
       </c>
       <c r="C8">
-        <v>0.9352685283506139</v>
+        <v>1.020846580860502</v>
       </c>
       <c r="D8">
-        <v>4.357710809747646</v>
+        <v>5.181999496594389</v>
       </c>
       <c r="E8">
-        <v>2.087513068162124</v>
+        <v>2.276400557150343</v>
       </c>
       <c r="F8">
-        <v>2.108754201445493</v>
+        <v>2.300455204406243</v>
       </c>
       <c r="G8">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.06748005575673845</v>
+        <v>0.09581464916219476</v>
       </c>
       <c r="C9">
-        <v>0.9265491817941878</v>
+        <v>1.411823298613351</v>
       </c>
       <c r="D9">
-        <v>4.470640045755423</v>
+        <v>8.906796727195324</v>
       </c>
       <c r="E9">
-        <v>2.114388811395724</v>
+        <v>2.984425694701633</v>
       </c>
       <c r="F9">
-        <v>2.137743895861163</v>
+        <v>3.060377733858364</v>
       </c>
       <c r="G9">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.09914051671729636</v>
+        <v>-0.6619987679365094</v>
       </c>
       <c r="C10">
-        <v>0.9226436494409858</v>
+        <v>1.043113688983639</v>
       </c>
       <c r="D10">
-        <v>4.481900347334963</v>
+        <v>5.226911917360573</v>
       </c>
       <c r="E10">
-        <v>2.117049916117937</v>
+        <v>2.286244063384435</v>
       </c>
       <c r="F10">
-        <v>2.13975451822466</v>
+        <v>2.277657863755817</v>
       </c>
       <c r="G10">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.07576832823998672</v>
+        <v>0.1186778033967304</v>
       </c>
       <c r="C11">
-        <v>0.9176283451160873</v>
+        <v>0.3680761991877547</v>
       </c>
       <c r="D11">
-        <v>4.557762439856401</v>
+        <v>0.2032499457136513</v>
       </c>
       <c r="E11">
-        <v>2.13489166934915</v>
+        <v>0.4508325029472158</v>
       </c>
       <c r="F11">
-        <v>2.159408835161238</v>
+        <v>0.4862683475903228</v>
       </c>
       <c r="G11">
-        <v>42</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
